--- a/整合結果/自由時報_財經/excel_by_week/2025_W20.xlsx
+++ b/整合結果/自由時報_財經/excel_by_week/2025_W20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,83 +453,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>大巨蛋辦公室次頂樓租金單價確定破5千元</t>
+          <t>基隆五年內成屋空屋率全台之冠 議員批成北台炒房聖地</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5042499</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5045980</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>今年房市衰退成定局？520檔期台北市半數行政區沒推新案</t>
+          <t>桃市府標售埔頂營區10筆住宅區土地 地王底價10.8億元</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5043599</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>房屋稅節稅設籍潮 3月全國戶數新增12.7萬戶</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5043955</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-05-17</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>基隆五年內成屋空屋率全台之冠 議員批成北台炒房聖地</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5045980</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-05-17</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>桃市府標售埔頂營區10筆住宅區土地 地王底價10.8億元</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>https://ec.ltn.com.tw/article/breakingnews/5046147</t>
         </is>
